--- a/medicamentos.xlsx
+++ b/medicamentos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniellanzasmartin/Documents/00_proyectos Python/Safe-calc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E1CEF2D-2774-CC44-B98C-CD42D80234A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D167B987-4B0D-F542-BAB8-324B68AA2C95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{4DED3168-F47F-0447-B958-4CE7634CA505}"/>
   </bookViews>
@@ -36,30 +36,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="67">
   <si>
     <t>Nome</t>
   </si>
   <si>
     <t>Tipo</t>
-  </si>
-  <si>
-    <t>Unidade dose</t>
-  </si>
-  <si>
-    <t>Dose mínima</t>
-  </si>
-  <si>
-    <t>Dose máxima</t>
-  </si>
-  <si>
-    <t>Concentração máxima</t>
-  </si>
-  <si>
-    <t>Diluição sugerida</t>
-  </si>
-  <si>
-    <t>Forma de administração</t>
   </si>
   <si>
     <t>Compatíveis</t>
@@ -270,6 +252,27 @@
       </rPr>
       <t> – Consulta manual Pediamecum.es</t>
     </r>
+  </si>
+  <si>
+    <t>nome | tipo | unidade_dose | dose_minima | dose_maxima | ...</t>
+  </si>
+  <si>
+    <t>Unidade_dose</t>
+  </si>
+  <si>
+    <t>Dose_mínima</t>
+  </si>
+  <si>
+    <t>Dose_máxima</t>
+  </si>
+  <si>
+    <t>Concentração_máxima</t>
+  </si>
+  <si>
+    <t>Diluição_sugerida</t>
+  </si>
+  <si>
+    <t>Forma_de_administração</t>
   </si>
 </sst>
 </file>
@@ -684,10 +687,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A35040F2-8819-5D4D-A9E5-02A732512D06}">
-  <dimension ref="A1:P13"/>
+  <dimension ref="A1:P23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="107" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="21.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -704,42 +707,42 @@
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D2" s="5">
         <v>25</v>
@@ -748,33 +751,33 @@
         <v>100</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D3" s="5">
         <v>10</v>
@@ -783,33 +786,33 @@
         <v>20</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D4" s="5">
         <v>15</v>
@@ -818,103 +821,103 @@
         <v>20</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E5" s="5">
         <v>5</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D6" s="5">
         <v>4</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D7" s="5">
         <v>10</v>
@@ -923,36 +926,36 @@
         <v>60</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D8" s="5">
         <v>10</v>
@@ -961,34 +964,34 @@
         <v>100</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="P8"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D9" s="5">
         <v>10</v>
@@ -997,25 +1000,25 @@
         <v>15</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
@@ -1023,7 +1026,7 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="P11" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
@@ -1031,7 +1034,12 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="P13" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/medicamentos.xlsx
+++ b/medicamentos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniellanzasmartin/Documents/00_proyectos Python/Safe-calc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D167B987-4B0D-F542-BAB8-324B68AA2C95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD883042-52A8-0345-AAC3-43876E566FA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{4DED3168-F47F-0447-B958-4CE7634CA505}"/>
   </bookViews>
@@ -41,18 +41,6 @@
     <t>Nome</t>
   </si>
   <si>
-    <t>Tipo</t>
-  </si>
-  <si>
-    <t>Compatíveis</t>
-  </si>
-  <si>
-    <t>Incompatíveis</t>
-  </si>
-  <si>
-    <t>Observações</t>
-  </si>
-  <si>
     <t>Morfina</t>
   </si>
   <si>
@@ -257,22 +245,34 @@
     <t>nome | tipo | unidade_dose | dose_minima | dose_maxima | ...</t>
   </si>
   <si>
-    <t>Unidade_dose</t>
-  </si>
-  <si>
-    <t>Dose_mínima</t>
-  </si>
-  <si>
-    <t>Dose_máxima</t>
-  </si>
-  <si>
-    <t>Concentração_máxima</t>
-  </si>
-  <si>
-    <t>Diluição_sugerida</t>
-  </si>
-  <si>
-    <t>Forma_de_administração</t>
+    <t>tipo</t>
+  </si>
+  <si>
+    <t>unidade_dose</t>
+  </si>
+  <si>
+    <t>dose_minima</t>
+  </si>
+  <si>
+    <t>dose_maxima</t>
+  </si>
+  <si>
+    <t>concentracao_maxima</t>
+  </si>
+  <si>
+    <t>diluicao_sugerida</t>
+  </si>
+  <si>
+    <t>forma_de_administracao</t>
+  </si>
+  <si>
+    <t>compativeis</t>
+  </si>
+  <si>
+    <t>incompativeis</t>
+  </si>
+  <si>
+    <t>observacoes</t>
   </si>
 </sst>
 </file>
@@ -337,7 +337,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -352,6 +352,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -690,7 +693,7 @@
   <dimension ref="A1:P23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="107" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="21.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -704,45 +707,45 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="C1" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>66</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D2" s="5">
         <v>25</v>
@@ -751,33 +754,33 @@
         <v>100</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D3" s="5">
         <v>10</v>
@@ -786,33 +789,33 @@
         <v>20</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D4" s="5">
         <v>15</v>
@@ -821,103 +824,103 @@
         <v>20</v>
       </c>
       <c r="F4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="K4" s="5" t="s">
         <v>25</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E5" s="5">
         <v>5</v>
       </c>
       <c r="F5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D6" s="5">
         <v>4</v>
       </c>
       <c r="E6" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6" s="5" t="s">
         <v>43</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D7" s="5">
         <v>10</v>
@@ -926,36 +929,36 @@
         <v>60</v>
       </c>
       <c r="F7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K7" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>35</v>
-      </c>
       <c r="P7" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D8" s="5">
         <v>10</v>
@@ -964,34 +967,34 @@
         <v>100</v>
       </c>
       <c r="F8" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="K8" s="5" t="s">
         <v>9</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>13</v>
       </c>
       <c r="P8"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D9" s="5">
         <v>10</v>
@@ -1000,25 +1003,25 @@
         <v>15</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
@@ -1026,7 +1029,7 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="P11" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
@@ -1034,12 +1037,15 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="P13" s="1" t="s">
-        <v>59</v>
-      </c>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="J16" s="7"/>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
